--- a/4th Year CSE,IT Timetables.xlsx
+++ b/4th Year CSE,IT Timetables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="51">
   <si>
     <t xml:space="preserve">Aurora's Technological &amp; Research Institute</t>
   </si>
@@ -157,6 +157,9 @@
     <t xml:space="preserve">HCI</t>
   </si>
   <si>
+    <t xml:space="preserve">LIB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ms. P Meena Kumari</t>
   </si>
   <si>
@@ -169,6 +172,9 @@
     <t xml:space="preserve">CSE-IV (C)</t>
   </si>
   <si>
+    <t xml:space="preserve">SEMINAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ms. P. Meena Kumari</t>
   </si>
   <si>
@@ -187,7 +193,7 @@
     <t xml:space="preserve">IT-IV</t>
   </si>
   <si>
-    <t xml:space="preserve">LIB</t>
+    <t xml:space="preserve">SPORTS</t>
   </si>
   <si>
     <t xml:space="preserve">Ms. G. Sumalatha</t>
@@ -1189,7 +1195,7 @@
   <dimension ref="A1:K191"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1353,7 +1359,9 @@
       <c r="G10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="10"/>
@@ -1363,18 +1371,22 @@
         <v>22</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
       <c r="G11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="10"/>
@@ -1523,7 +1535,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -1542,7 +1554,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -1561,7 +1573,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -1828,7 +1840,7 @@
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A5:K5"/>
@@ -1836,7 +1848,9 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:F15"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="B13:E13"/>
@@ -1875,7 +1889,7 @@
   <dimension ref="A1:K203"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1943,7 +1957,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2025,7 +2039,9 @@
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
@@ -2040,7 +2056,9 @@
         <v>18</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="J10" s="13"/>
       <c r="K10" s="10"/>
     </row>
@@ -2056,10 +2074,10 @@
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
       <c r="G11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>19</v>
@@ -2211,7 +2229,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -2230,7 +2248,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -2249,7 +2267,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -2528,7 +2546,7 @@
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A5:K5"/>
@@ -2536,6 +2554,7 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="F10:F15"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="B12:E12"/>
@@ -2576,7 +2595,7 @@
   <dimension ref="A1:K194"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2644,7 +2663,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2726,7 +2745,9 @@
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
@@ -2740,7 +2761,9 @@
       <c r="G10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="10"/>
@@ -2749,7 +2772,9 @@
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
@@ -2758,7 +2783,9 @@
         <v>36</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
         <v>19</v>
@@ -2929,7 +2956,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -2948,7 +2975,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -3218,13 +3245,14 @@
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="F10:F15"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
@@ -3266,7 +3294,7 @@
   <dimension ref="A1:K196"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3319,7 +3347,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3334,7 +3362,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3416,7 +3444,9 @@
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
@@ -3426,20 +3456,24 @@
         <v>20</v>
       </c>
       <c r="G10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="K10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
         <v>18</v>
@@ -3447,7 +3481,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
       <c r="G11" s="13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>36</v>
@@ -3602,7 +3636,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -3621,7 +3655,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -3640,7 +3674,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -3912,13 +3946,15 @@
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="F10:F15"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="B12:E12"/>
